--- a/ComputedResults/Area/SixBorderVowels/Norwagian/Formant/Mother/6_bordervowels_formant_no_ADS_M.xlsx
+++ b/ComputedResults/Area/SixBorderVowels/Norwagian/Formant/Mother/6_bordervowels_formant_no_ADS_M.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,3624 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>MADS101</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>294076</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MADS101</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>350569</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MADS101</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>301522</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>MADS102</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>280466</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MADS102</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>315790</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MADS102</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>300908</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MADS102</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>18</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>309251</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MADS103</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>344744</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MADS103</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>396326</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MADS103</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>12</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>265570</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MADS103</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>445543</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MADS104</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>493489</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MADS105</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>487412</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MADS105</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>423146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MADS106</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>379366</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MADS106</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>394920</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MADS106</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>18</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>333534</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MADS107</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>445181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MADS107</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>437847</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MADS108</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>435298</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MADS108</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>413787</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>MADS108</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>403654</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>MADS109</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>279281</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MADS109</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>12</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>236175</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MADS109</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>240875</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MADS110</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>478191</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MADS110</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>12</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>399181</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MADS110</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>18</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>402520</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MADS111</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>397194</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>MADS111</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>18</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>388179</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>MADS112</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>382572</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MADS112</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>472093</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MADS112</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>12</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>422804</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MADS112</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>18</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>419950</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MADS113</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>6</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>506644</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>MADS114</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>6</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>398139</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>MADS114</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>328131</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MADS114</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>383109</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MADS114</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>15</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>297948</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MADS114</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>18</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>300053</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MADS115</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>6</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>203796</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>MADS115</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>276612</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>MADS115</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>12</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>204436</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>MADS115</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>15</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>222112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>MADS115</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>18</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>196862</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>MADS116</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>6</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>259830</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>MADS116</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>235783</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MADS116</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>18</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>228230</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MADS117</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>6</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>292745</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MADS117</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>12</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>341784</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>MADS117</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>15</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>298509</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>MADS117</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>18</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>306585</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>MADS118</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>6</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>278462</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>MADS118</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>9</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>329267</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MADS118</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>18</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>207533</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>MADS119</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>6</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>254746</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MADS119</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>294271</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MADS119</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>12</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>289190</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MADS119</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>15</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>260638</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>MADS119</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>18</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>296780</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MADS120</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>6</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>340142</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>MADS120</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>15</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>285937</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MADS121</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>220854</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MADS121</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>18</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>203420</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MADS122</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>420429</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MADS122</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>9</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>358638</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MADS122</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>12</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>433319</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MADS122</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>15</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>466345</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MADS122</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>18</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>533418</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>MADS123</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>640846</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>MADS123</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>15</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>676121</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MADS124</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>281203</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MADS125</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>301720</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MADS126</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>302516</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>MADS127</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>420190</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>MADS127</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>15</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>389847</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>MADS127</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>18</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>367237</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>MADS128</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>6</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>449403</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>MADS128</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>15</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>474868</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>MADS128</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>18</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>478863</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MADS129</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>6</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>361635</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>MADS130</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>6</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>275403</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MADS130</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>15</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>265878</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>MADS130</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>18</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>309163</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>MADS131</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>6</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>406920</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>MADS131</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>9</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>364460</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>MADS131</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>12</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>368433</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>MADS131</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>15</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>405490</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MADS131</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>18</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>461556</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MADS132</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>6</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>266041</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>MADS132</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>15</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>294614</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MADS132</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>18</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>257180</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>MADS133</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>6</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>308796</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>MADS133</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>15</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>256880</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>MADS133</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>18</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>342813</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MADS134</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>6</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>262774</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MADS134</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>9</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>246352</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MADS135</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>6</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>409908</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MADS135</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>9</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>392730</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>MADS135</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>15</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>360181</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>MADS135</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>18</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>406497</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>MADS136</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>6</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>421806</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>MADS136</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>9</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>397316</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>MADS136</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>15</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>386239</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>MADS136</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>18</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>394399</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>MADS137</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>6</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>261974</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>MADS137</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>9</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>255912</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>MADS137</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>15</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>246829</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>MADS137</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>18</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>286499</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>MADS138</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>6</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>348682</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>MADS138</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>9</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>359692</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>MADS138</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>15</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>281527</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>MADS138</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>18</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>311035</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>MADS139</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>6</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>280689</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>MADS140</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>6</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>349128</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>MADS140</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>15</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>310629</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>MADS141</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>9</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>705452</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>MADS142</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>6</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>448876</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>MADS142</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>12</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>453928</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>MADS142</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>15</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>467040</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>MADS142</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>18</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>531238</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>MADS143</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>6</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>373177</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>MADS143</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>9</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>321738</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>MADS144</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>6</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>314291</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>MADS144</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>15</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>224871</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>MADS144</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>18</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>331284</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>MADS145</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>6</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>292669</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>MADS145</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>9</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>270407</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>MADS145</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>18</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>127511</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>MADS146</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>6</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>449498</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>MADS147</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>6</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>264450</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>MADS147</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>9</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>324665</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>MADS147</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>12</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>362047</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>MADS147</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>15</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>226478</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>MADS147</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>18</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>318697</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>MADS148</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>6</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>433578</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>MADS148</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>15</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>374529</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>MADS148</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>18</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>338357</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>MADS149</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>6</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>166122</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>MADS150</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>6</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>298077</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>MADS150</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>12</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>330568</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>MADS150</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>15</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>295253</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>MADS151</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>6</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>330758</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>MADS151</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>18</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>429207</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>MADS152</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>6</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>572725</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>MADS153</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>6</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>337294</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>MADS153</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>12</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>385386</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>MADS153</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>15</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>370245</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>MADS153</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>18</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>371247</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>MADS154</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>6</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>441544</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>MADS154</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>9</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>468406</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>MADS154</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>15</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>386510</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>MADS154</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>18</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>468094</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>MADS155</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>6</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>297641</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>MADS155</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>12</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>258656</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>MADS155</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>15</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>248061</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>MADS155</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>18</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>358396</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>MADS156</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>6</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>307578</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>MADS156</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>15</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>301705</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>MADS157</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>6</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>346613</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>MADS157</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>15</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>449417</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>MADS157</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>18</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>338970</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>MADS158</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>6</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>217209</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>MADS159</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>6</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>583585</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>MADS159</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>9</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>529688</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>MADS159</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>15</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>464346</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>MADS159</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>18</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>546258</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>MADS160</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>6</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>260932</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>MADS160</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>15</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>276861</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>MADS161</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>6</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>328694</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>MADS162</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>6</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>237665</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>MADS163</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>6</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>623064</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>MADS163</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>12</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>538788</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>MADS163</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>15</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>434656</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>MADS163</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>18</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>536396</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>MADS164</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>6</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>350525</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>MADS164</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>12</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>291817</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>MADS164</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>15</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>320958</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>MADS164</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>18</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>328728</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>MADS165</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>6</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>301225</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>MADS165</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>9</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>260374</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>MADS165</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>15</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>286321</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>MADS166</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>6</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>375741</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>MADS166</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>18</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>356403</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>MADS168</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>6</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>344163</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>MADS168</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>12</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>281506</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>MADS168</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>15</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>255373</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>MADS168</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>18</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>251749</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>MADS169</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>6</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>366705</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>MADS169</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>15</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>336743</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>MADS169</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>18</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>430991</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>MADS170</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>6</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>301046</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>MADS170</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>9</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>379953</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>MADS170</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>12</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>361314</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>MADS170</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>15</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>368664</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>MADS170</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>18</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>379635</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>MADS171</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>6</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>254400</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>MADS171</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>9</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>327620</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>MADS171</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>12</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>272411</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>MADS171</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>15</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>282964</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>MADS171</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>18</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>ADS</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>311402</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
